--- a/xlsx/美国人口历史_intext.xlsx
+++ b/xlsx/美国人口历史_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美国历史</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国人口历史</t>
+    <t>政策_政策_美国_美国人口历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_women_in_the_United_States</t>
